--- a/medicine/Mort/Cimetière_israélite_de_Bischheim/Cimetière_israélite_de_Bischheim.xlsx
+++ b/medicine/Mort/Cimetière_israélite_de_Bischheim/Cimetière_israélite_de_Bischheim.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_isra%C3%A9lite_de_Bischheim</t>
+          <t>Cimetière_israélite_de_Bischheim</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière israélite de Bischheim créé en 1797, est situé 12 rue des Vergers à Bischheim dans le Bas-Rhin, au lieu-dit Im Winkel.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_isra%C3%A9lite_de_Bischheim</t>
+          <t>Cimetière_israélite_de_Bischheim</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au  XVIIe et XVIIIe siècle, les Juifs de Bischheim enterraient leurs morts à Ettendorf ou à Rosenwiller.
-La communauté israélite locale achète le 27 décembre 1797 cinquante ares de terre pour en faire un lieu d’inhumation. Il est agrandi à partir de 1848 de quinze ares au lieu-dit Zwischendorf[1].
+La communauté israélite locale achète le 27 décembre 1797 cinquante ares de terre pour en faire un lieu d’inhumation. Il est agrandi à partir de 1848 de quinze ares au lieu-dit Zwischendorf.
 Une stèle rappelle la mémoire des vingt sept Juifs de Bischheim morts en déportation au cours de la Seconde Guerre mondiale.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_isra%C3%A9lite_de_Bischheim</t>
+          <t>Cimetière_israélite_de_Bischheim</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Léon Nisand</t>
         </is>
